--- a/SubbvaSalud/SOCIOS.xlsx
+++ b/SubbvaSalud/SOCIOS.xlsx
@@ -8853,7 +8853,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1532</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1570</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1600</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1608</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1611</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1637</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1639</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1654</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1660</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1664</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1668</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1683</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1684</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1691</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1696</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1709</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1710</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1711</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1745</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1765</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1794</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1805</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>1850</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>404</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>1867</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>1875</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>431</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>1881</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>1885</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>1939</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>1957</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>1965</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1980</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1983</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1999</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>2004</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>589</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>2035</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>2053</v>
       </c>
@@ -17379,7 +17379,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>2079</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>2080</v>
       </c>
@@ -17407,7 +17407,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>2081</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>2093</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>2101</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>2105</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>2109</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>2148</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>2173</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>2205</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>889</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>2279</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>948</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>2316</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>2317</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>2318</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
         <v>2319</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>2320</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>2321</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
         <v>2322</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>2323</v>
       </c>
@@ -21103,7 +21103,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
         <v>2324</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>2325</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>2326</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>2327</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
         <v>2328</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>2329</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>2330</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>2348</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>2349</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>2350</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>2351</v>
       </c>
@@ -21495,7 +21495,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>2352</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>2353</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
         <v>2354</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
         <v>2361</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>2376</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
         <v>2393</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
         <v>1075</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
         <v>2424</v>
       </c>
@@ -22601,7 +22601,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
         <v>2425</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
         <v>2426</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
         <v>2427</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
         <v>2428</v>
       </c>
@@ -22657,7 +22657,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
         <v>2429</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" s="1" t="s">
         <v>2472</v>
       </c>
@@ -23371,7 +23371,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1044" s="1" t="s">
         <v>2474</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1053" s="1" t="s">
         <v>2482</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1132" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1132" s="1" t="s">
         <v>2555</v>
       </c>
@@ -24813,7 +24813,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1147" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" s="1" t="s">
         <v>2569</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1154" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1154" s="1" t="s">
         <v>2575</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1157" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" s="1" t="s">
         <v>2578</v>
       </c>
@@ -24967,7 +24967,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1158" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" s="1" t="s">
         <v>1262</v>
       </c>
@@ -24981,7 +24981,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1159" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1159" s="1" t="s">
         <v>2579</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1172" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" s="1" t="s">
         <v>1277</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1181" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1181" s="1" t="s">
         <v>2598</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1184" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1184" s="1" t="s">
         <v>2600</v>
       </c>
@@ -25709,7 +25709,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1211" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
         <v>1322</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1226" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1226" s="1" t="s">
         <v>2638</v>
       </c>
@@ -26423,7 +26423,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1262" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1262" s="1" t="s">
         <v>2670</v>
       </c>
@@ -26479,7 +26479,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1266" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1266" s="1" t="s">
         <v>2674</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1268" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1268" s="1" t="s">
         <v>1385</v>
       </c>
@@ -26521,7 +26521,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1269" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1269" s="1" t="s">
         <v>2676</v>
       </c>
@@ -27501,7 +27501,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1339" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" s="1" t="s">
         <v>2742</v>
       </c>
@@ -27795,7 +27795,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1360" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360" s="1" t="s">
         <v>2759</v>
       </c>
@@ -27963,7 +27963,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1372" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1372" s="1" t="s">
         <v>2769</v>
       </c>
@@ -27977,7 +27977,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1373" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1373" s="1" t="s">
         <v>2770</v>
       </c>
@@ -27991,7 +27991,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1374" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1374" s="1" t="s">
         <v>2771</v>
       </c>
@@ -28215,7 +28215,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1390" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1390" s="1" t="s">
         <v>2784</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1391" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1391" s="1" t="s">
         <v>2785</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1392" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1392" s="1" t="s">
         <v>2786</v>
       </c>
@@ -28257,7 +28257,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1393" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1393" s="1" t="s">
         <v>2787</v>
       </c>

--- a/SubbvaSalud/SOCIOS.xlsx
+++ b/SubbvaSalud/SOCIOS.xlsx
@@ -3501,9 +3501,6 @@
     <t>SAAVEDRA SERRANO VERONICA ISABEL</t>
   </si>
   <si>
-    <t>008777936K</t>
-  </si>
-  <si>
     <t>SAEZ LEIVA JOSE MANUEL</t>
   </si>
   <si>
@@ -4596,6 +4593,9 @@
     <t>ZUNIGA TORRES ANDRE FRANCISCO</t>
   </si>
   <si>
+    <t>008797936K</t>
+  </si>
+  <si>
     <t>158212730</t>
   </si>
   <si>
@@ -7719,7 +7719,7 @@
     <t>102210034</t>
   </si>
   <si>
-    <t>93593081</t>
+    <t>93583081</t>
   </si>
   <si>
     <t>212951951</t>
@@ -8382,7 +8382,7 @@
     <t>132292108</t>
   </si>
   <si>
-    <t>136083236</t>
+    <t>136003236</t>
   </si>
 </sst>
 </file>
@@ -8404,7 +8404,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8413,7 +8413,12 @@
     </fill>
     <fill>
       <patternFill>
-        <bgColor indexed="13"/>
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -8450,7 +8455,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8757,8 +8762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A1382" workbookViewId="0">
+      <selection activeCell="A1394" sqref="A1394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8856,7 +8861,7 @@
         <v>1532</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C7" t="s">
         <v>1527</v>
@@ -9416,7 +9421,7 @@
         <v>1570</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C47" t="s">
         <v>1527</v>
@@ -9878,7 +9883,7 @@
         <v>1600</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C80" t="s">
         <v>1527</v>
@@ -9990,7 +9995,7 @@
         <v>1608</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C88" t="s">
         <v>1527</v>
@@ -10032,7 +10037,7 @@
         <v>1611</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C91" t="s">
         <v>1527</v>
@@ -10466,7 +10471,7 @@
         <v>1637</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C122" t="s">
         <v>1527</v>
@@ -10494,7 +10499,7 @@
         <v>1639</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C124" t="s">
         <v>1527</v>
@@ -10704,7 +10709,7 @@
         <v>1654</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C139" t="s">
         <v>1527</v>
@@ -10788,7 +10793,7 @@
         <v>1660</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C145" t="s">
         <v>1527</v>
@@ -10858,7 +10863,7 @@
         <v>1664</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C150" t="s">
         <v>1527</v>
@@ -10928,7 +10933,7 @@
         <v>1668</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C155" t="s">
         <v>1527</v>
@@ -11138,7 +11143,7 @@
         <v>1683</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C170" t="s">
         <v>1527</v>
@@ -11152,7 +11157,7 @@
         <v>1684</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C171" t="s">
         <v>1527</v>
@@ -11250,7 +11255,7 @@
         <v>1691</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C178" t="s">
         <v>1527</v>
@@ -11292,7 +11297,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C181" t="s">
         <v>1527</v>
@@ -11348,7 +11353,7 @@
         <v>1696</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C185" t="s">
         <v>1527</v>
@@ -11586,7 +11591,7 @@
         <v>1709</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C202" t="s">
         <v>1527</v>
@@ -11600,7 +11605,7 @@
         <v>1710</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C203" t="s">
         <v>1527</v>
@@ -11614,7 +11619,7 @@
         <v>1711</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C204" t="s">
         <v>1527</v>
@@ -12174,7 +12179,7 @@
         <v>1745</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C244" t="s">
         <v>1527</v>
@@ -12482,7 +12487,7 @@
         <v>1765</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C266" t="s">
         <v>1527</v>
@@ -12944,7 +12949,7 @@
         <v>1794</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C299" t="s">
         <v>1527</v>
@@ -13098,7 +13103,7 @@
         <v>1805</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C310" t="s">
         <v>1527</v>
@@ -13812,7 +13817,7 @@
         <v>1850</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C361" t="s">
         <v>1527</v>
@@ -13896,7 +13901,7 @@
         <v>380</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C367" t="s">
         <v>1527</v>
@@ -14092,7 +14097,7 @@
         <v>1867</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C381" t="s">
         <v>1527</v>
@@ -14218,7 +14223,7 @@
         <v>1875</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C390" t="s">
         <v>1527</v>
@@ -14232,7 +14237,7 @@
         <v>404</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C391" t="s">
         <v>1527</v>
@@ -14316,7 +14321,7 @@
         <v>1881</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C397" t="s">
         <v>1527</v>
@@ -14386,7 +14391,7 @@
         <v>1885</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C402" t="s">
         <v>1527</v>
@@ -15254,7 +15259,7 @@
         <v>1939</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C464" t="s">
         <v>1527</v>
@@ -15506,7 +15511,7 @@
         <v>1957</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C482" t="s">
         <v>1527</v>
@@ -15646,7 +15651,7 @@
         <v>1965</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C492" t="s">
         <v>1527</v>
@@ -15870,7 +15875,7 @@
         <v>1980</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C508" t="s">
         <v>1527</v>
@@ -15912,7 +15917,7 @@
         <v>1983</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C511" t="s">
         <v>1527</v>
@@ -16150,7 +16155,7 @@
         <v>1999</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C528" t="s">
         <v>1527</v>
@@ -16220,7 +16225,7 @@
         <v>2004</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C533" t="s">
         <v>1527</v>
@@ -16248,7 +16253,7 @@
         <v>552</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C535" t="s">
         <v>1527</v>
@@ -16710,7 +16715,7 @@
         <v>2035</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C568" t="s">
         <v>1527</v>
@@ -16976,7 +16981,7 @@
         <v>2053</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C587" t="s">
         <v>1527</v>
@@ -17382,7 +17387,7 @@
         <v>2079</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C616" t="s">
         <v>1527</v>
@@ -17396,7 +17401,7 @@
         <v>2080</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C617" t="s">
         <v>1527</v>
@@ -17410,7 +17415,7 @@
         <v>2081</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C618" t="s">
         <v>1527</v>
@@ -17606,7 +17611,7 @@
         <v>2093</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C632" t="s">
         <v>1527</v>
@@ -17746,7 +17751,7 @@
         <v>2101</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C642" t="s">
         <v>1527</v>
@@ -17802,7 +17807,7 @@
         <v>2105</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C646" t="s">
         <v>1527</v>
@@ -17858,7 +17863,7 @@
         <v>2109</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C650" t="s">
         <v>1527</v>
@@ -18432,7 +18437,7 @@
         <v>2148</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C691" t="s">
         <v>1527</v>
@@ -18796,7 +18801,7 @@
         <v>2173</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C717" t="s">
         <v>1527</v>
@@ -19258,7 +19263,7 @@
         <v>2205</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C750" t="s">
         <v>1527</v>
@@ -20168,7 +20173,7 @@
         <v>839</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C815" t="s">
         <v>1527</v>
@@ -20392,7 +20397,7 @@
         <v>2279</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C831" t="s">
         <v>1527</v>
@@ -20882,7 +20887,7 @@
         <v>896</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C866" t="s">
         <v>1527</v>
@@ -20994,7 +20999,7 @@
         <v>2316</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C874" t="s">
         <v>1527</v>
@@ -21008,7 +21013,7 @@
         <v>2317</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C875" t="s">
         <v>1527</v>
@@ -21022,7 +21027,7 @@
         <v>2318</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C876" t="s">
         <v>1527</v>
@@ -21036,7 +21041,7 @@
         <v>2319</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C877" t="s">
         <v>1527</v>
@@ -21050,7 +21055,7 @@
         <v>2320</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C878" t="s">
         <v>1527</v>
@@ -21064,7 +21069,7 @@
         <v>2321</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C879" t="s">
         <v>1527</v>
@@ -21078,7 +21083,7 @@
         <v>2322</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C880" t="s">
         <v>1527</v>
@@ -21092,7 +21097,7 @@
         <v>2323</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C881" t="s">
         <v>1527</v>
@@ -21106,7 +21111,7 @@
         <v>2324</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C882" t="s">
         <v>1527</v>
@@ -21120,7 +21125,7 @@
         <v>2325</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C883" t="s">
         <v>1527</v>
@@ -21134,7 +21139,7 @@
         <v>2326</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C884" t="s">
         <v>1527</v>
@@ -21148,7 +21153,7 @@
         <v>2327</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C885" t="s">
         <v>1527</v>
@@ -21162,7 +21167,7 @@
         <v>2328</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C886" t="s">
         <v>1527</v>
@@ -21176,7 +21181,7 @@
         <v>2329</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C887" t="s">
         <v>1527</v>
@@ -21190,7 +21195,7 @@
         <v>2330</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C888" t="s">
         <v>1527</v>
@@ -21442,7 +21447,7 @@
         <v>2348</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C906" t="s">
         <v>1527</v>
@@ -21456,7 +21461,7 @@
         <v>2349</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C907" t="s">
         <v>1527</v>
@@ -21470,7 +21475,7 @@
         <v>2350</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C908" t="s">
         <v>1527</v>
@@ -21484,7 +21489,7 @@
         <v>2351</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C909" t="s">
         <v>1527</v>
@@ -21498,7 +21503,7 @@
         <v>2352</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C910" t="s">
         <v>1527</v>
@@ -21512,7 +21517,7 @@
         <v>2353</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C911" t="s">
         <v>1527</v>
@@ -21526,7 +21531,7 @@
         <v>2354</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C912" t="s">
         <v>1527</v>
@@ -21638,7 +21643,7 @@
         <v>2361</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C920" t="s">
         <v>1527</v>
@@ -21848,7 +21853,7 @@
         <v>2376</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C935" t="s">
         <v>1527</v>
@@ -22100,7 +22105,7 @@
         <v>2393</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C953" t="s">
         <v>1527</v>
@@ -22576,7 +22581,7 @@
         <v>997</v>
       </c>
       <c r="B987" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C987" t="s">
         <v>1527</v>
@@ -22590,7 +22595,7 @@
         <v>2424</v>
       </c>
       <c r="B988" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C988" t="s">
         <v>1527</v>
@@ -22604,7 +22609,7 @@
         <v>2425</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C989" t="s">
         <v>1527</v>
@@ -22618,7 +22623,7 @@
         <v>2426</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C990" t="s">
         <v>1527</v>
@@ -22632,7 +22637,7 @@
         <v>2427</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C991" t="s">
         <v>1527</v>
@@ -22646,7 +22651,7 @@
         <v>2428</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C992" t="s">
         <v>1527</v>
@@ -22660,7 +22665,7 @@
         <v>2429</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C993" t="s">
         <v>1527</v>
@@ -23346,7 +23351,7 @@
         <v>2472</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C1042" t="s">
         <v>1527</v>
@@ -23374,7 +23379,7 @@
         <v>2474</v>
       </c>
       <c r="B1044" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C1044" t="s">
         <v>1527</v>
@@ -23500,7 +23505,7 @@
         <v>2482</v>
       </c>
       <c r="B1053" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C1053" t="s">
         <v>1527</v>
@@ -24606,7 +24611,7 @@
         <v>2555</v>
       </c>
       <c r="B1132" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C1132" t="s">
         <v>1527</v>
@@ -24783,8 +24788,8 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1145" s="1" t="s">
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+      <c r="A1145" s="5" t="s">
         <v>2567</v>
       </c>
       <c r="B1145" s="2" t="s">
@@ -24816,7 +24821,7 @@
         <v>2569</v>
       </c>
       <c r="B1147" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C1147" t="s">
         <v>1527</v>
@@ -24825,12 +24830,12 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1148" s="1" t="s">
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+      <c r="A1148" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1148" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="B1148" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="C1148" t="s">
         <v>1527</v>
@@ -24844,7 +24849,7 @@
         <v>2570</v>
       </c>
       <c r="B1149" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C1149" t="s">
         <v>1527</v>
@@ -24858,7 +24863,7 @@
         <v>2571</v>
       </c>
       <c r="B1150" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1150" t="s">
         <v>1527</v>
@@ -24872,7 +24877,7 @@
         <v>2572</v>
       </c>
       <c r="B1151" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1151" t="s">
         <v>1527</v>
@@ -24886,7 +24891,7 @@
         <v>2573</v>
       </c>
       <c r="B1152" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C1152" t="s">
         <v>1527</v>
@@ -24900,7 +24905,7 @@
         <v>2574</v>
       </c>
       <c r="B1153" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C1153" t="s">
         <v>1527</v>
@@ -24914,7 +24919,7 @@
         <v>2575</v>
       </c>
       <c r="B1154" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C1154" t="s">
         <v>1527</v>
@@ -24928,7 +24933,7 @@
         <v>2576</v>
       </c>
       <c r="B1155" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1155" t="s">
         <v>1527</v>
@@ -24942,7 +24947,7 @@
         <v>2577</v>
       </c>
       <c r="B1156" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1156" t="s">
         <v>1527</v>
@@ -24956,7 +24961,7 @@
         <v>2578</v>
       </c>
       <c r="B1157" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C1157" t="s">
         <v>1527</v>
@@ -24967,10 +24972,10 @@
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1158" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C1158" t="s">
         <v>1527</v>
@@ -24984,7 +24989,7 @@
         <v>2579</v>
       </c>
       <c r="B1159" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C1159" t="s">
         <v>1527</v>
@@ -24998,7 +25003,7 @@
         <v>2580</v>
       </c>
       <c r="B1160" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1160" t="s">
         <v>1527</v>
@@ -25012,7 +25017,7 @@
         <v>2581</v>
       </c>
       <c r="B1161" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1161" t="s">
         <v>1527</v>
@@ -25026,7 +25031,7 @@
         <v>2582</v>
       </c>
       <c r="B1162" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1162" t="s">
         <v>1527</v>
@@ -25040,7 +25045,7 @@
         <v>2583</v>
       </c>
       <c r="B1163" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1163" t="s">
         <v>1527</v>
@@ -25054,7 +25059,7 @@
         <v>2584</v>
       </c>
       <c r="B1164" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1164" t="s">
         <v>1527</v>
@@ -25068,7 +25073,7 @@
         <v>2585</v>
       </c>
       <c r="B1165" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C1165" t="s">
         <v>1527</v>
@@ -25082,7 +25087,7 @@
         <v>2586</v>
       </c>
       <c r="B1166" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C1166" t="s">
         <v>1527</v>
@@ -25096,7 +25101,7 @@
         <v>2587</v>
       </c>
       <c r="B1167" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C1167" t="s">
         <v>1527</v>
@@ -25110,7 +25115,7 @@
         <v>2588</v>
       </c>
       <c r="B1168" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C1168" t="s">
         <v>1527</v>
@@ -25124,7 +25129,7 @@
         <v>2589</v>
       </c>
       <c r="B1169" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C1169" t="s">
         <v>1527</v>
@@ -25138,7 +25143,7 @@
         <v>2590</v>
       </c>
       <c r="B1170" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C1170" t="s">
         <v>1527</v>
@@ -25152,7 +25157,7 @@
         <v>2591</v>
       </c>
       <c r="B1171" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C1171" t="s">
         <v>1527</v>
@@ -25163,10 +25168,10 @@
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1172" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C1172" t="s">
         <v>1527</v>
@@ -25180,7 +25185,7 @@
         <v>2592</v>
       </c>
       <c r="B1173" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C1173" t="s">
         <v>1527</v>
@@ -25191,10 +25196,10 @@
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1174" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1174" s="2" t="s">
         <v>1185</v>
-      </c>
-      <c r="B1174" s="2" t="s">
-        <v>1186</v>
       </c>
       <c r="C1174" t="s">
         <v>1527</v>
@@ -25208,7 +25213,7 @@
         <v>2593</v>
       </c>
       <c r="B1175" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C1175" t="s">
         <v>1527</v>
@@ -25222,7 +25227,7 @@
         <v>2594</v>
       </c>
       <c r="B1176" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C1176" t="s">
         <v>1527</v>
@@ -25236,7 +25241,7 @@
         <v>2595</v>
       </c>
       <c r="B1177" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C1177" t="s">
         <v>1527</v>
@@ -25250,7 +25255,7 @@
         <v>2596</v>
       </c>
       <c r="B1178" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C1178" t="s">
         <v>1527</v>
@@ -25261,10 +25266,10 @@
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1179" s="2" t="s">
         <v>1191</v>
-      </c>
-      <c r="B1179" s="2" t="s">
-        <v>1192</v>
       </c>
       <c r="C1179" t="s">
         <v>1527</v>
@@ -25278,7 +25283,7 @@
         <v>2597</v>
       </c>
       <c r="B1180" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C1180" t="s">
         <v>1527</v>
@@ -25292,7 +25297,7 @@
         <v>2598</v>
       </c>
       <c r="B1181" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C1181" t="s">
         <v>1527</v>
@@ -25303,10 +25308,10 @@
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1182" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1182" s="2" t="s">
         <v>1194</v>
-      </c>
-      <c r="B1182" s="2" t="s">
-        <v>1195</v>
       </c>
       <c r="C1182" t="s">
         <v>1527</v>
@@ -25320,7 +25325,7 @@
         <v>2599</v>
       </c>
       <c r="B1183" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C1183" t="s">
         <v>1527</v>
@@ -25334,7 +25339,7 @@
         <v>2600</v>
       </c>
       <c r="B1184" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C1184" t="s">
         <v>1527</v>
@@ -25348,7 +25353,7 @@
         <v>2601</v>
       </c>
       <c r="B1185" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C1185" t="s">
         <v>1527</v>
@@ -25362,7 +25367,7 @@
         <v>2602</v>
       </c>
       <c r="B1186" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C1186" t="s">
         <v>1527</v>
@@ -25376,7 +25381,7 @@
         <v>2603</v>
       </c>
       <c r="B1187" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C1187" t="s">
         <v>1527</v>
@@ -25387,10 +25392,10 @@
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1188" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="B1188" s="2" t="s">
-        <v>1201</v>
       </c>
       <c r="C1188" t="s">
         <v>1527</v>
@@ -25404,7 +25409,7 @@
         <v>2604</v>
       </c>
       <c r="B1189" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C1189" t="s">
         <v>1527</v>
@@ -25418,7 +25423,7 @@
         <v>2605</v>
       </c>
       <c r="B1190" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C1190" t="s">
         <v>1527</v>
@@ -25432,7 +25437,7 @@
         <v>2606</v>
       </c>
       <c r="B1191" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C1191" t="s">
         <v>1527</v>
@@ -25446,7 +25451,7 @@
         <v>2607</v>
       </c>
       <c r="B1192" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C1192" t="s">
         <v>1527</v>
@@ -25460,7 +25465,7 @@
         <v>2608</v>
       </c>
       <c r="B1193" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C1193" t="s">
         <v>1527</v>
@@ -25474,7 +25479,7 @@
         <v>2609</v>
       </c>
       <c r="B1194" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C1194" t="s">
         <v>1527</v>
@@ -25488,7 +25493,7 @@
         <v>2610</v>
       </c>
       <c r="B1195" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C1195" t="s">
         <v>1527</v>
@@ -25502,7 +25507,7 @@
         <v>2611</v>
       </c>
       <c r="B1196" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C1196" t="s">
         <v>1527</v>
@@ -25516,7 +25521,7 @@
         <v>2612</v>
       </c>
       <c r="B1197" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C1197" t="s">
         <v>1527</v>
@@ -25530,7 +25535,7 @@
         <v>2613</v>
       </c>
       <c r="B1198" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C1198" t="s">
         <v>1527</v>
@@ -25544,7 +25549,7 @@
         <v>2614</v>
       </c>
       <c r="B1199" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C1199" t="s">
         <v>1527</v>
@@ -25555,10 +25560,10 @@
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1200" s="2" t="s">
         <v>1213</v>
-      </c>
-      <c r="B1200" s="2" t="s">
-        <v>1214</v>
       </c>
       <c r="C1200" t="s">
         <v>1527</v>
@@ -25572,7 +25577,7 @@
         <v>2615</v>
       </c>
       <c r="B1201" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C1201" t="s">
         <v>1527</v>
@@ -25586,7 +25591,7 @@
         <v>2616</v>
       </c>
       <c r="B1202" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1202" t="s">
         <v>1527</v>
@@ -25600,7 +25605,7 @@
         <v>2617</v>
       </c>
       <c r="B1203" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C1203" t="s">
         <v>1527</v>
@@ -25614,7 +25619,7 @@
         <v>2618</v>
       </c>
       <c r="B1204" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C1204" t="s">
         <v>1527</v>
@@ -25628,7 +25633,7 @@
         <v>2619</v>
       </c>
       <c r="B1205" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C1205" t="s">
         <v>1527</v>
@@ -25642,7 +25647,7 @@
         <v>2620</v>
       </c>
       <c r="B1206" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C1206" t="s">
         <v>1527</v>
@@ -25656,7 +25661,7 @@
         <v>2621</v>
       </c>
       <c r="B1207" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C1207" t="s">
         <v>1527</v>
@@ -25670,7 +25675,7 @@
         <v>2622</v>
       </c>
       <c r="B1208" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C1208" t="s">
         <v>1527</v>
@@ -25684,7 +25689,7 @@
         <v>2623</v>
       </c>
       <c r="B1209" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C1209" t="s">
         <v>1527</v>
@@ -25698,7 +25703,7 @@
         <v>2624</v>
       </c>
       <c r="B1210" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C1210" t="s">
         <v>1527</v>
@@ -25709,10 +25714,10 @@
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1211" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C1211" t="s">
         <v>1527</v>
@@ -25726,7 +25731,7 @@
         <v>2625</v>
       </c>
       <c r="B1212" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C1212" t="s">
         <v>1527</v>
@@ -25740,7 +25745,7 @@
         <v>2626</v>
       </c>
       <c r="B1213" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C1213" t="s">
         <v>1527</v>
@@ -25754,7 +25759,7 @@
         <v>2627</v>
       </c>
       <c r="B1214" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C1214" t="s">
         <v>1527</v>
@@ -25768,7 +25773,7 @@
         <v>2628</v>
       </c>
       <c r="B1215" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C1215" t="s">
         <v>1527</v>
@@ -25782,7 +25787,7 @@
         <v>2629</v>
       </c>
       <c r="B1216" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C1216" t="s">
         <v>1527</v>
@@ -25796,7 +25801,7 @@
         <v>2630</v>
       </c>
       <c r="B1217" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C1217" t="s">
         <v>1527</v>
@@ -25810,7 +25815,7 @@
         <v>2631</v>
       </c>
       <c r="B1218" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C1218" t="s">
         <v>1527</v>
@@ -25824,7 +25829,7 @@
         <v>2632</v>
       </c>
       <c r="B1219" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C1219" t="s">
         <v>1527</v>
@@ -25838,7 +25843,7 @@
         <v>2633</v>
       </c>
       <c r="B1220" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C1220" t="s">
         <v>1527</v>
@@ -25852,7 +25857,7 @@
         <v>2634</v>
       </c>
       <c r="B1221" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C1221" t="s">
         <v>1527</v>
@@ -25866,7 +25871,7 @@
         <v>2635</v>
       </c>
       <c r="B1222" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C1222" t="s">
         <v>1527</v>
@@ -25880,7 +25885,7 @@
         <v>2636</v>
       </c>
       <c r="B1223" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C1223" t="s">
         <v>1527</v>
@@ -25891,10 +25896,10 @@
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1224" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1224" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="B1224" s="2" t="s">
-        <v>1239</v>
       </c>
       <c r="C1224" t="s">
         <v>1527</v>
@@ -25908,7 +25913,7 @@
         <v>2637</v>
       </c>
       <c r="B1225" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C1225" t="s">
         <v>1527</v>
@@ -25922,7 +25927,7 @@
         <v>2638</v>
       </c>
       <c r="B1226" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C1226" t="s">
         <v>1527</v>
@@ -25936,7 +25941,7 @@
         <v>2639</v>
       </c>
       <c r="B1227" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C1227" t="s">
         <v>1527</v>
@@ -25947,10 +25952,10 @@
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1228" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1228" s="2" t="s">
         <v>1242</v>
-      </c>
-      <c r="B1228" s="2" t="s">
-        <v>1243</v>
       </c>
       <c r="C1228" t="s">
         <v>1527</v>
@@ -25964,7 +25969,7 @@
         <v>2640</v>
       </c>
       <c r="B1229" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C1229" t="s">
         <v>1527</v>
@@ -25978,7 +25983,7 @@
         <v>2641</v>
       </c>
       <c r="B1230" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C1230" t="s">
         <v>1527</v>
@@ -25992,7 +25997,7 @@
         <v>2642</v>
       </c>
       <c r="B1231" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C1231" t="s">
         <v>1527</v>
@@ -26006,7 +26011,7 @@
         <v>2643</v>
       </c>
       <c r="B1232" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C1232" t="s">
         <v>1527</v>
@@ -26017,10 +26022,10 @@
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1233" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1233" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="B1233" s="2" t="s">
-        <v>1249</v>
       </c>
       <c r="C1233" t="s">
         <v>1527</v>
@@ -26034,7 +26039,7 @@
         <v>2644</v>
       </c>
       <c r="B1234" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C1234" t="s">
         <v>1527</v>
@@ -26048,7 +26053,7 @@
         <v>2645</v>
       </c>
       <c r="B1235" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C1235" t="s">
         <v>1527</v>
@@ -26062,7 +26067,7 @@
         <v>2646</v>
       </c>
       <c r="B1236" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C1236" t="s">
         <v>1527</v>
@@ -26076,7 +26081,7 @@
         <v>2647</v>
       </c>
       <c r="B1237" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C1237" t="s">
         <v>1527</v>
@@ -26090,7 +26095,7 @@
         <v>2648</v>
       </c>
       <c r="B1238" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C1238" t="s">
         <v>1527</v>
@@ -26104,7 +26109,7 @@
         <v>2649</v>
       </c>
       <c r="B1239" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C1239" t="s">
         <v>1527</v>
@@ -26118,7 +26123,7 @@
         <v>2650</v>
       </c>
       <c r="B1240" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1240" t="s">
         <v>1527</v>
@@ -26132,7 +26137,7 @@
         <v>2651</v>
       </c>
       <c r="B1241" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1241" t="s">
         <v>1527</v>
@@ -26146,7 +26151,7 @@
         <v>2652</v>
       </c>
       <c r="B1242" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1242" t="s">
         <v>1527</v>
@@ -26160,7 +26165,7 @@
         <v>2653</v>
       </c>
       <c r="B1243" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1243" t="s">
         <v>1527</v>
@@ -26174,7 +26179,7 @@
         <v>2654</v>
       </c>
       <c r="B1244" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1244" t="s">
         <v>1527</v>
@@ -26188,7 +26193,7 @@
         <v>2655</v>
       </c>
       <c r="B1245" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1245" t="s">
         <v>1527</v>
@@ -26202,7 +26207,7 @@
         <v>2656</v>
       </c>
       <c r="B1246" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C1246" t="s">
         <v>1527</v>
@@ -26216,7 +26221,7 @@
         <v>2657</v>
       </c>
       <c r="B1247" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1247" t="s">
         <v>1527</v>
@@ -26227,10 +26232,10 @@
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1248" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1248" s="2" t="s">
         <v>1264</v>
-      </c>
-      <c r="B1248" s="2" t="s">
-        <v>1265</v>
       </c>
       <c r="C1248" t="s">
         <v>1527</v>
@@ -26244,7 +26249,7 @@
         <v>2658</v>
       </c>
       <c r="B1249" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C1249" t="s">
         <v>1527</v>
@@ -26258,7 +26263,7 @@
         <v>2659</v>
       </c>
       <c r="B1250" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C1250" t="s">
         <v>1527</v>
@@ -26272,7 +26277,7 @@
         <v>2660</v>
       </c>
       <c r="B1251" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C1251" t="s">
         <v>1527</v>
@@ -26283,10 +26288,10 @@
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1252" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1252" s="2" t="s">
         <v>1269</v>
-      </c>
-      <c r="B1252" s="2" t="s">
-        <v>1270</v>
       </c>
       <c r="C1252" t="s">
         <v>1527</v>
@@ -26300,7 +26305,7 @@
         <v>2661</v>
       </c>
       <c r="B1253" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C1253" t="s">
         <v>1527</v>
@@ -26314,7 +26319,7 @@
         <v>2662</v>
       </c>
       <c r="B1254" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C1254" t="s">
         <v>1527</v>
@@ -26328,7 +26333,7 @@
         <v>2663</v>
       </c>
       <c r="B1255" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C1255" t="s">
         <v>1527</v>
@@ -26342,7 +26347,7 @@
         <v>2664</v>
       </c>
       <c r="B1256" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C1256" t="s">
         <v>1527</v>
@@ -26356,7 +26361,7 @@
         <v>2665</v>
       </c>
       <c r="B1257" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C1257" t="s">
         <v>1527</v>
@@ -26370,7 +26375,7 @@
         <v>2666</v>
       </c>
       <c r="B1258" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C1258" t="s">
         <v>1527</v>
@@ -26384,7 +26389,7 @@
         <v>2667</v>
       </c>
       <c r="B1259" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C1259" t="s">
         <v>1527</v>
@@ -26398,7 +26403,7 @@
         <v>2668</v>
       </c>
       <c r="B1260" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C1260" t="s">
         <v>1527</v>
@@ -26412,7 +26417,7 @@
         <v>2669</v>
       </c>
       <c r="B1261" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C1261" t="s">
         <v>1527</v>
@@ -26426,7 +26431,7 @@
         <v>2670</v>
       </c>
       <c r="B1262" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C1262" t="s">
         <v>1527</v>
@@ -26440,7 +26445,7 @@
         <v>2671</v>
       </c>
       <c r="B1263" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C1263" t="s">
         <v>1527</v>
@@ -26454,7 +26459,7 @@
         <v>2672</v>
       </c>
       <c r="B1264" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C1264" t="s">
         <v>1527</v>
@@ -26468,7 +26473,7 @@
         <v>2673</v>
       </c>
       <c r="B1265" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C1265" t="s">
         <v>1527</v>
@@ -26482,7 +26487,7 @@
         <v>2674</v>
       </c>
       <c r="B1266" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C1266" t="s">
         <v>1527</v>
@@ -26496,7 +26501,7 @@
         <v>2675</v>
       </c>
       <c r="B1267" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C1267" t="s">
         <v>1527</v>
@@ -26507,10 +26512,10 @@
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1268" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1268" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C1268" t="s">
         <v>1527</v>
@@ -26524,7 +26529,7 @@
         <v>2676</v>
       </c>
       <c r="B1269" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C1269" t="s">
         <v>1527</v>
@@ -26538,7 +26543,7 @@
         <v>2677</v>
       </c>
       <c r="B1270" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C1270" t="s">
         <v>1527</v>
@@ -26552,7 +26557,7 @@
         <v>2678</v>
       </c>
       <c r="B1271" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C1271" t="s">
         <v>1527</v>
@@ -26566,7 +26571,7 @@
         <v>2679</v>
       </c>
       <c r="B1272" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C1272" t="s">
         <v>1527</v>
@@ -26580,7 +26585,7 @@
         <v>2680</v>
       </c>
       <c r="B1273" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C1273" t="s">
         <v>1527</v>
@@ -26594,7 +26599,7 @@
         <v>2681</v>
       </c>
       <c r="B1274" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C1274" t="s">
         <v>1527</v>
@@ -26608,7 +26613,7 @@
         <v>2682</v>
       </c>
       <c r="B1275" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C1275" t="s">
         <v>1527</v>
@@ -26622,7 +26627,7 @@
         <v>2683</v>
       </c>
       <c r="B1276" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C1276" t="s">
         <v>1527</v>
@@ -26636,7 +26641,7 @@
         <v>2684</v>
       </c>
       <c r="B1277" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C1277" t="s">
         <v>1527</v>
@@ -26650,7 +26655,7 @@
         <v>2685</v>
       </c>
       <c r="B1278" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C1278" t="s">
         <v>1527</v>
@@ -26664,7 +26669,7 @@
         <v>2686</v>
       </c>
       <c r="B1279" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C1279" t="s">
         <v>1527</v>
@@ -26678,7 +26683,7 @@
         <v>2687</v>
       </c>
       <c r="B1280" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1280" t="s">
         <v>1527</v>
@@ -26692,7 +26697,7 @@
         <v>2688</v>
       </c>
       <c r="B1281" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C1281" t="s">
         <v>1527</v>
@@ -26706,7 +26711,7 @@
         <v>2689</v>
       </c>
       <c r="B1282" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C1282" t="s">
         <v>1527</v>
@@ -26720,7 +26725,7 @@
         <v>2690</v>
       </c>
       <c r="B1283" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C1283" t="s">
         <v>1527</v>
@@ -26734,7 +26739,7 @@
         <v>2691</v>
       </c>
       <c r="B1284" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C1284" t="s">
         <v>1527</v>
@@ -26748,7 +26753,7 @@
         <v>2692</v>
       </c>
       <c r="B1285" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C1285" t="s">
         <v>1527</v>
@@ -26762,7 +26767,7 @@
         <v>2693</v>
       </c>
       <c r="B1286" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C1286" t="s">
         <v>1527</v>
@@ -26776,7 +26781,7 @@
         <v>2694</v>
       </c>
       <c r="B1287" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C1287" t="s">
         <v>1527</v>
@@ -26790,7 +26795,7 @@
         <v>2695</v>
       </c>
       <c r="B1288" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C1288" t="s">
         <v>1527</v>
@@ -26804,7 +26809,7 @@
         <v>2696</v>
       </c>
       <c r="B1289" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C1289" t="s">
         <v>1527</v>
@@ -26818,7 +26823,7 @@
         <v>2697</v>
       </c>
       <c r="B1290" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C1290" t="s">
         <v>1527</v>
@@ -26832,7 +26837,7 @@
         <v>2698</v>
       </c>
       <c r="B1291" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C1291" t="s">
         <v>1527</v>
@@ -26846,7 +26851,7 @@
         <v>2699</v>
       </c>
       <c r="B1292" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C1292" t="s">
         <v>1527</v>
@@ -26860,7 +26865,7 @@
         <v>2700</v>
       </c>
       <c r="B1293" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C1293" t="s">
         <v>1527</v>
@@ -26874,7 +26879,7 @@
         <v>2701</v>
       </c>
       <c r="B1294" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C1294" t="s">
         <v>1527</v>
@@ -26888,7 +26893,7 @@
         <v>2702</v>
       </c>
       <c r="B1295" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C1295" t="s">
         <v>1527</v>
@@ -26902,7 +26907,7 @@
         <v>2703</v>
       </c>
       <c r="B1296" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C1296" t="s">
         <v>1527</v>
@@ -26916,7 +26921,7 @@
         <v>2704</v>
       </c>
       <c r="B1297" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C1297" t="s">
         <v>1527</v>
@@ -26930,7 +26935,7 @@
         <v>2705</v>
       </c>
       <c r="B1298" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C1298" t="s">
         <v>1527</v>
@@ -26944,7 +26949,7 @@
         <v>2706</v>
       </c>
       <c r="B1299" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C1299" t="s">
         <v>1527</v>
@@ -26958,7 +26963,7 @@
         <v>2707</v>
       </c>
       <c r="B1300" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C1300" t="s">
         <v>1527</v>
@@ -26972,7 +26977,7 @@
         <v>2708</v>
       </c>
       <c r="B1301" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C1301" t="s">
         <v>1527</v>
@@ -26986,7 +26991,7 @@
         <v>2709</v>
       </c>
       <c r="B1302" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C1302" t="s">
         <v>1527</v>
@@ -27000,7 +27005,7 @@
         <v>2710</v>
       </c>
       <c r="B1303" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C1303" t="s">
         <v>1527</v>
@@ -27014,7 +27019,7 @@
         <v>2711</v>
       </c>
       <c r="B1304" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C1304" t="s">
         <v>1527</v>
@@ -27028,7 +27033,7 @@
         <v>2712</v>
       </c>
       <c r="B1305" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C1305" t="s">
         <v>1527</v>
@@ -27042,7 +27047,7 @@
         <v>2713</v>
       </c>
       <c r="B1306" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C1306" t="s">
         <v>1527</v>
@@ -27056,7 +27061,7 @@
         <v>2714</v>
       </c>
       <c r="B1307" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C1307" t="s">
         <v>1527</v>
@@ -27070,7 +27075,7 @@
         <v>2715</v>
       </c>
       <c r="B1308" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C1308" t="s">
         <v>1527</v>
@@ -27084,7 +27089,7 @@
         <v>2716</v>
       </c>
       <c r="B1309" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C1309" t="s">
         <v>1527</v>
@@ -27098,7 +27103,7 @@
         <v>2717</v>
       </c>
       <c r="B1310" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C1310" t="s">
         <v>1527</v>
@@ -27112,7 +27117,7 @@
         <v>2718</v>
       </c>
       <c r="B1311" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C1311" t="s">
         <v>1527</v>
@@ -27126,7 +27131,7 @@
         <v>2719</v>
       </c>
       <c r="B1312" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C1312" t="s">
         <v>1527</v>
@@ -27140,7 +27145,7 @@
         <v>2720</v>
       </c>
       <c r="B1313" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C1313" t="s">
         <v>1527</v>
@@ -27154,7 +27159,7 @@
         <v>2721</v>
       </c>
       <c r="B1314" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C1314" t="s">
         <v>1527</v>
@@ -27168,7 +27173,7 @@
         <v>2722</v>
       </c>
       <c r="B1315" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C1315" t="s">
         <v>1527</v>
@@ -27182,7 +27187,7 @@
         <v>2723</v>
       </c>
       <c r="B1316" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C1316" t="s">
         <v>1527</v>
@@ -27196,7 +27201,7 @@
         <v>2724</v>
       </c>
       <c r="B1317" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C1317" t="s">
         <v>1527</v>
@@ -27210,7 +27215,7 @@
         <v>2725</v>
       </c>
       <c r="B1318" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C1318" t="s">
         <v>1527</v>
@@ -27224,7 +27229,7 @@
         <v>2726</v>
       </c>
       <c r="B1319" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C1319" t="s">
         <v>1527</v>
@@ -27238,7 +27243,7 @@
         <v>2727</v>
       </c>
       <c r="B1320" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C1320" t="s">
         <v>1527</v>
@@ -27252,7 +27257,7 @@
         <v>2728</v>
       </c>
       <c r="B1321" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C1321" t="s">
         <v>1527</v>
@@ -27266,7 +27271,7 @@
         <v>2729</v>
       </c>
       <c r="B1322" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C1322" t="s">
         <v>1527</v>
@@ -27280,7 +27285,7 @@
         <v>2730</v>
       </c>
       <c r="B1323" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C1323" t="s">
         <v>1527</v>
@@ -27294,7 +27299,7 @@
         <v>2731</v>
       </c>
       <c r="B1324" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C1324" t="s">
         <v>1527</v>
@@ -27308,7 +27313,7 @@
         <v>2732</v>
       </c>
       <c r="B1325" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1325" t="s">
         <v>1527</v>
@@ -27322,7 +27327,7 @@
         <v>2733</v>
       </c>
       <c r="B1326" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C1326" t="s">
         <v>1527</v>
@@ -27336,7 +27341,7 @@
         <v>2734</v>
       </c>
       <c r="B1327" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C1327" t="s">
         <v>1527</v>
@@ -27350,7 +27355,7 @@
         <v>2735</v>
       </c>
       <c r="B1328" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C1328" t="s">
         <v>1527</v>
@@ -27364,7 +27369,7 @@
         <v>2736</v>
       </c>
       <c r="B1329" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C1329" t="s">
         <v>1527</v>
@@ -27378,7 +27383,7 @@
         <v>2737</v>
       </c>
       <c r="B1330" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C1330" t="s">
         <v>1527</v>
@@ -27392,7 +27397,7 @@
         <v>2738</v>
       </c>
       <c r="B1331" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C1331" t="s">
         <v>1527</v>
@@ -27403,10 +27408,10 @@
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1332" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="B1332" s="2" t="s">
-        <v>1348</v>
       </c>
       <c r="C1332" t="s">
         <v>1527</v>
@@ -27417,10 +27422,10 @@
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1333" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="B1333" s="2" t="s">
-        <v>1350</v>
       </c>
       <c r="C1333" t="s">
         <v>1527</v>
@@ -27431,10 +27436,10 @@
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1334" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="B1334" s="2" t="s">
-        <v>1352</v>
       </c>
       <c r="C1334" t="s">
         <v>1527</v>
@@ -27448,7 +27453,7 @@
         <v>2739</v>
       </c>
       <c r="B1335" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C1335" t="s">
         <v>1527</v>
@@ -27462,7 +27467,7 @@
         <v>2740</v>
       </c>
       <c r="B1336" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C1336" t="s">
         <v>1527</v>
@@ -27476,7 +27481,7 @@
         <v>2741</v>
       </c>
       <c r="B1337" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C1337" t="s">
         <v>1527</v>
@@ -27487,10 +27492,10 @@
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1338" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1338" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="B1338" s="2" t="s">
-        <v>1357</v>
       </c>
       <c r="C1338" t="s">
         <v>1527</v>
@@ -27504,7 +27509,7 @@
         <v>2742</v>
       </c>
       <c r="B1339" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C1339" t="s">
         <v>1527</v>
@@ -27518,7 +27523,7 @@
         <v>2743</v>
       </c>
       <c r="B1340" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1340" t="s">
         <v>1527</v>
@@ -27532,7 +27537,7 @@
         <v>2744</v>
       </c>
       <c r="B1341" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C1341" t="s">
         <v>1527</v>
@@ -27546,7 +27551,7 @@
         <v>2745</v>
       </c>
       <c r="B1342" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C1342" t="s">
         <v>1527</v>
@@ -27560,7 +27565,7 @@
         <v>2746</v>
       </c>
       <c r="B1343" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C1343" t="s">
         <v>1527</v>
@@ -27574,7 +27579,7 @@
         <v>2747</v>
       </c>
       <c r="B1344" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C1344" t="s">
         <v>1527</v>
@@ -27588,7 +27593,7 @@
         <v>2748</v>
       </c>
       <c r="B1345" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C1345" t="s">
         <v>1527</v>
@@ -27602,7 +27607,7 @@
         <v>2749</v>
       </c>
       <c r="B1346" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C1346" t="s">
         <v>1527</v>
@@ -27613,10 +27618,10 @@
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1347" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1347" s="2" t="s">
         <v>1365</v>
-      </c>
-      <c r="B1347" s="2" t="s">
-        <v>1366</v>
       </c>
       <c r="C1347" t="s">
         <v>1527</v>
@@ -27630,7 +27635,7 @@
         <v>2750</v>
       </c>
       <c r="B1348" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C1348" t="s">
         <v>1527</v>
@@ -27641,10 +27646,10 @@
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1349" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1349" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="B1349" s="2" t="s">
-        <v>1369</v>
       </c>
       <c r="C1349" t="s">
         <v>1527</v>
@@ -27658,7 +27663,7 @@
         <v>2751</v>
       </c>
       <c r="B1350" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C1350" t="s">
         <v>1527</v>
@@ -27669,10 +27674,10 @@
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1351" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1351" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="B1351" s="2" t="s">
-        <v>1372</v>
       </c>
       <c r="C1351" t="s">
         <v>1527</v>
@@ -27686,7 +27691,7 @@
         <v>2752</v>
       </c>
       <c r="B1352" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C1352" t="s">
         <v>1527</v>
@@ -27700,7 +27705,7 @@
         <v>2753</v>
       </c>
       <c r="B1353" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C1353" t="s">
         <v>1527</v>
@@ -27711,10 +27716,10 @@
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1354" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1354" s="2" t="s">
         <v>1375</v>
-      </c>
-      <c r="B1354" s="2" t="s">
-        <v>1376</v>
       </c>
       <c r="C1354" t="s">
         <v>1527</v>
@@ -27728,7 +27733,7 @@
         <v>2754</v>
       </c>
       <c r="B1355" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C1355" t="s">
         <v>1527</v>
@@ -27742,7 +27747,7 @@
         <v>2755</v>
       </c>
       <c r="B1356" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C1356" t="s">
         <v>1527</v>
@@ -27756,7 +27761,7 @@
         <v>2756</v>
       </c>
       <c r="B1357" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C1357" t="s">
         <v>1527</v>
@@ -27770,7 +27775,7 @@
         <v>2757</v>
       </c>
       <c r="B1358" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C1358" t="s">
         <v>1527</v>
@@ -27784,7 +27789,7 @@
         <v>2758</v>
       </c>
       <c r="B1359" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C1359" t="s">
         <v>1527</v>
@@ -27798,7 +27803,7 @@
         <v>2759</v>
       </c>
       <c r="B1360" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C1360" t="s">
         <v>1527</v>
@@ -27812,7 +27817,7 @@
         <v>2760</v>
       </c>
       <c r="B1361" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C1361" t="s">
         <v>1527</v>
@@ -27826,7 +27831,7 @@
         <v>2761</v>
       </c>
       <c r="B1362" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C1362" t="s">
         <v>1527</v>
@@ -27837,10 +27842,10 @@
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1363" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1363" s="2" t="s">
         <v>1384</v>
-      </c>
-      <c r="B1363" s="2" t="s">
-        <v>1385</v>
       </c>
       <c r="C1363" t="s">
         <v>1527</v>
@@ -27854,7 +27859,7 @@
         <v>2762</v>
       </c>
       <c r="B1364" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C1364" t="s">
         <v>1527</v>
@@ -27868,7 +27873,7 @@
         <v>2763</v>
       </c>
       <c r="B1365" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C1365" t="s">
         <v>1527</v>
@@ -27882,7 +27887,7 @@
         <v>2764</v>
       </c>
       <c r="B1366" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C1366" t="s">
         <v>1527</v>
@@ -27896,7 +27901,7 @@
         <v>2765</v>
       </c>
       <c r="B1367" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C1367" t="s">
         <v>1527</v>
@@ -27907,10 +27912,10 @@
     </row>
     <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1368" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1368" s="2" t="s">
         <v>1390</v>
-      </c>
-      <c r="B1368" s="2" t="s">
-        <v>1391</v>
       </c>
       <c r="C1368" t="s">
         <v>1527</v>
@@ -27924,7 +27929,7 @@
         <v>2766</v>
       </c>
       <c r="B1369" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C1369" t="s">
         <v>1527</v>
@@ -27938,7 +27943,7 @@
         <v>2767</v>
       </c>
       <c r="B1370" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C1370" t="s">
         <v>1527</v>
@@ -27952,7 +27957,7 @@
         <v>2768</v>
       </c>
       <c r="B1371" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1371" t="s">
         <v>1527</v>
@@ -27966,7 +27971,7 @@
         <v>2769</v>
       </c>
       <c r="B1372" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C1372" t="s">
         <v>1527</v>
@@ -27980,7 +27985,7 @@
         <v>2770</v>
       </c>
       <c r="B1373" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C1373" t="s">
         <v>1527</v>
@@ -27994,7 +27999,7 @@
         <v>2771</v>
       </c>
       <c r="B1374" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C1374" t="s">
         <v>1527</v>
@@ -28008,7 +28013,7 @@
         <v>2772</v>
       </c>
       <c r="B1375" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C1375" t="s">
         <v>1527</v>
@@ -28022,7 +28027,7 @@
         <v>2773</v>
       </c>
       <c r="B1376" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C1376" t="s">
         <v>1527</v>
@@ -28033,10 +28038,10 @@
     </row>
     <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1377" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1377" s="2" t="s">
         <v>1397</v>
-      </c>
-      <c r="B1377" s="2" t="s">
-        <v>1398</v>
       </c>
       <c r="C1377" t="s">
         <v>1527</v>
@@ -28050,7 +28055,7 @@
         <v>2774</v>
       </c>
       <c r="B1378" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C1378" t="s">
         <v>1527</v>
@@ -28061,10 +28066,10 @@
     </row>
     <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1379" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1379" s="2" t="s">
         <v>1400</v>
-      </c>
-      <c r="B1379" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="C1379" t="s">
         <v>1527</v>
@@ -28078,7 +28083,7 @@
         <v>2775</v>
       </c>
       <c r="B1380" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C1380" t="s">
         <v>1527</v>
@@ -28092,7 +28097,7 @@
         <v>2776</v>
       </c>
       <c r="B1381" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C1381" t="s">
         <v>1527</v>
@@ -28106,7 +28111,7 @@
         <v>2777</v>
       </c>
       <c r="B1382" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C1382" t="s">
         <v>1527</v>
@@ -28120,7 +28125,7 @@
         <v>2778</v>
       </c>
       <c r="B1383" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C1383" t="s">
         <v>1527</v>
@@ -28134,7 +28139,7 @@
         <v>2779</v>
       </c>
       <c r="B1384" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C1384" t="s">
         <v>1527</v>
@@ -28145,10 +28150,10 @@
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1385" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1385" s="2" t="s">
         <v>1407</v>
-      </c>
-      <c r="B1385" s="2" t="s">
-        <v>1408</v>
       </c>
       <c r="C1385" t="s">
         <v>1527</v>
@@ -28162,7 +28167,7 @@
         <v>2780</v>
       </c>
       <c r="B1386" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C1386" t="s">
         <v>1527</v>
@@ -28176,7 +28181,7 @@
         <v>2781</v>
       </c>
       <c r="B1387" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C1387" t="s">
         <v>1527</v>
@@ -28190,7 +28195,7 @@
         <v>2782</v>
       </c>
       <c r="B1388" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C1388" t="s">
         <v>1527</v>
@@ -28204,7 +28209,7 @@
         <v>2783</v>
       </c>
       <c r="B1389" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C1389" t="s">
         <v>1527</v>
@@ -28218,7 +28223,7 @@
         <v>2784</v>
       </c>
       <c r="B1390" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C1390" t="s">
         <v>1527</v>
@@ -28232,7 +28237,7 @@
         <v>2785</v>
       </c>
       <c r="B1391" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C1391" t="s">
         <v>1527</v>
@@ -28246,7 +28251,7 @@
         <v>2786</v>
       </c>
       <c r="B1392" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C1392" t="s">
         <v>1527</v>
@@ -28260,7 +28265,7 @@
         <v>2787</v>
       </c>
       <c r="B1393" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C1393" t="s">
         <v>1527</v>
@@ -28269,12 +28274,12 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1394" s="1" t="s">
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25" s="5" customFormat="true">
+      <c r="A1394" s="5" t="s">
         <v>2788</v>
       </c>
       <c r="B1394" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C1394" t="s">
         <v>1527</v>
